--- a/Clinic list.xlsx
+++ b/Clinic list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -86,6 +86,102 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/WSp4GaUcSZZvk5aG8</t>
+  </si>
+  <si>
+    <t>Dr. Phanbuh's Clinic</t>
+  </si>
+  <si>
+    <t>National Highway 44, Lachumiere, Shillong, Meghalaya 793001</t>
+  </si>
+  <si>
+    <t>Medical: Ortho</t>
+  </si>
+  <si>
+    <t>Mon-Wed,Fri-Sat</t>
+  </si>
+  <si>
+    <t>9:30am–7pm, 9:30am–3pm (Wed)</t>
+  </si>
+  <si>
+    <t>0364 250 4665</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/nr8qFjJ2eYSBMfRr7</t>
+  </si>
+  <si>
+    <t>Shillong Dental Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dental Clinic </t>
+  </si>
+  <si>
+    <t>Wardrobe Building, Police Bazaar Opp U.P. Sweet Meat, AC Ln, Police Bazar, Shillong, Meghalaya 793001</t>
+  </si>
+  <si>
+    <t>070850 55299</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9cxwPjp9pXZF9Jeb9</t>
+  </si>
+  <si>
+    <t>Physio Care Clinic</t>
+  </si>
+  <si>
+    <t>Physiotherapy</t>
+  </si>
+  <si>
+    <t>Laitumkhrah Main Road, Laitumkhrah, Shillong, Meghalaya 793003</t>
+  </si>
+  <si>
+    <t>087949 75995</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/sdVT2UAZNRrohFDk8</t>
+  </si>
+  <si>
+    <t>''Remedy'' Homoeo Clinic</t>
+  </si>
+  <si>
+    <t>Homoeo Clinic</t>
+  </si>
+  <si>
+    <t>Madanryting,Willme Building ,Main Road Dong Patta junction, Block-C &amp; D, Shillong, Meghalaya 793021</t>
+  </si>
+  <si>
+    <t>076389 42382</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/2YicsBL8opEViG1t6</t>
+  </si>
+  <si>
+    <t>Dr.Iris Thabah's Clinic</t>
+  </si>
+  <si>
+    <t>Nongrah Rd, Umpling, Shillong, Meghalaya 793006</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/QkVnvi4L1Xg7Z6Hu9</t>
+  </si>
+  <si>
+    <t>Memorial Clinic</t>
+  </si>
+  <si>
+    <t>Near Umshyrpi College, harisava, Laban, Shillong, Meghalaya 793004</t>
+  </si>
+  <si>
+    <t>0364 222 0906</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/cJTENhekYU5tSFPX6</t>
+  </si>
+  <si>
+    <t>Mon-Sun</t>
+  </si>
+  <si>
+    <t>11AM-8PM,10:30AM-1PM(Sun)</t>
+  </si>
+  <si>
+    <t>10AM-6PM</t>
   </si>
 </sst>
 </file>
@@ -129,10 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +539,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +548,8 @@
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" customWidth="1"/>
@@ -516,34 +617,133 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">

--- a/Clinic list.xlsx
+++ b/Clinic list.xlsx
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,159 +591,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -842,6 +842,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K21">
+    <sortCondition ref="B2:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
